--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fbn1-Itga5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.36919033333333</v>
+        <v>12.74421933333333</v>
       </c>
       <c r="H2">
-        <v>37.107571</v>
+        <v>38.232658</v>
       </c>
       <c r="I2">
-        <v>0.02533349179988408</v>
+        <v>0.02615307415902535</v>
       </c>
       <c r="J2">
-        <v>0.02564912807677914</v>
+        <v>0.02644429547550969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N2">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O2">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P2">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q2">
-        <v>410.7986473424606</v>
+        <v>367.7367980477638</v>
       </c>
       <c r="R2">
-        <v>3697.187826082146</v>
+        <v>3309.631182429875</v>
       </c>
       <c r="S2">
-        <v>0.005360064914790431</v>
+        <v>0.005229702574272536</v>
       </c>
       <c r="T2">
-        <v>0.005579408019943233</v>
+        <v>0.005406571454730244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.36919033333333</v>
+        <v>12.74421933333333</v>
       </c>
       <c r="H3">
-        <v>37.107571</v>
+        <v>38.232658</v>
       </c>
       <c r="I3">
-        <v>0.02533349179988408</v>
+        <v>0.02615307415902535</v>
       </c>
       <c r="J3">
-        <v>0.02564912807677914</v>
+        <v>0.02644429547550969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>153.522748</v>
       </c>
       <c r="O3">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P3">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q3">
-        <v>632.9840301694566</v>
+        <v>652.1758577226872</v>
       </c>
       <c r="R3">
-        <v>5696.856271525109</v>
+        <v>5869.582719504185</v>
       </c>
       <c r="S3">
-        <v>0.008259120407729893</v>
+        <v>0.009274801380001509</v>
       </c>
       <c r="T3">
-        <v>0.008597097865999758</v>
+        <v>0.009588475764586688</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.36919033333333</v>
+        <v>12.74421933333333</v>
       </c>
       <c r="H4">
-        <v>37.107571</v>
+        <v>38.232658</v>
       </c>
       <c r="I4">
-        <v>0.02533349179988408</v>
+        <v>0.02615307415902535</v>
       </c>
       <c r="J4">
-        <v>0.02564912807677914</v>
+        <v>0.02644429547550969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N4">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O4">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P4">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q4">
-        <v>274.5280402068645</v>
+        <v>374.5969433457273</v>
       </c>
       <c r="R4">
-        <v>2470.752361861781</v>
+        <v>3371.372490111546</v>
       </c>
       <c r="S4">
-        <v>0.003582017920356712</v>
+        <v>0.005327262893813861</v>
       </c>
       <c r="T4">
-        <v>0.003728600274461418</v>
+        <v>0.005507431270609898</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.36919033333333</v>
+        <v>12.74421933333333</v>
       </c>
       <c r="H5">
-        <v>37.107571</v>
+        <v>38.232658</v>
       </c>
       <c r="I5">
-        <v>0.02533349179988408</v>
+        <v>0.02615307415902535</v>
       </c>
       <c r="J5">
-        <v>0.02564912807677914</v>
+        <v>0.02644429547550969</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N5">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O5">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P5">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q5">
-        <v>159.2684963536105</v>
+        <v>121.058186937919</v>
       </c>
       <c r="R5">
-        <v>955.6109781216632</v>
+        <v>726.3491216275141</v>
       </c>
       <c r="S5">
-        <v>0.002078121446745516</v>
+        <v>0.001721607179991192</v>
       </c>
       <c r="T5">
-        <v>0.001442107841442227</v>
+        <v>0.001186554697697924</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.36919033333333</v>
+        <v>12.74421933333333</v>
       </c>
       <c r="H6">
-        <v>37.107571</v>
+        <v>38.232658</v>
       </c>
       <c r="I6">
-        <v>0.02533349179988408</v>
+        <v>0.02615307415902535</v>
       </c>
       <c r="J6">
-        <v>0.02564912807677914</v>
+        <v>0.02644429547550969</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N6">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O6">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P6">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q6">
-        <v>463.9950633467071</v>
+        <v>323.4369400767202</v>
       </c>
       <c r="R6">
-        <v>4175.955570120364</v>
+        <v>2910.932460690482</v>
       </c>
       <c r="S6">
-        <v>0.006054167110261525</v>
+        <v>0.004599700130946255</v>
       </c>
       <c r="T6">
-        <v>0.006301914074932502</v>
+        <v>0.00475526228788494</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1371.900604</v>
       </c>
       <c r="I7">
-        <v>0.9366022017903033</v>
+        <v>0.9384494856523883</v>
       </c>
       <c r="J7">
-        <v>0.9482715616337878</v>
+        <v>0.9488993659610642</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N7">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O7">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P7">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q7">
-        <v>15187.59911317032</v>
+        <v>13195.48160514378</v>
       </c>
       <c r="R7">
-        <v>136688.3920185329</v>
+        <v>118759.334446294</v>
       </c>
       <c r="S7">
-        <v>0.1981664683490116</v>
+        <v>0.1876571626378905</v>
       </c>
       <c r="T7">
-        <v>0.2062757821718529</v>
+        <v>0.1940037400568273</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1371.900604</v>
       </c>
       <c r="I8">
-        <v>0.9366022017903033</v>
+        <v>0.9384494856523883</v>
       </c>
       <c r="J8">
-        <v>0.9482715616337878</v>
+        <v>0.9488993659610642</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>153.522748</v>
       </c>
       <c r="O8">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P8">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q8">
         <v>23401.99452321553</v>
@@ -948,10 +948,10 @@
         <v>210617.9507089398</v>
       </c>
       <c r="S8">
-        <v>0.305347183082217</v>
+        <v>0.3328072459729089</v>
       </c>
       <c r="T8">
-        <v>0.3178425166932154</v>
+        <v>0.3440628086301465</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1371.900604</v>
       </c>
       <c r="I9">
-        <v>0.9366022017903033</v>
+        <v>0.9384494856523883</v>
       </c>
       <c r="J9">
-        <v>0.9482715616337878</v>
+        <v>0.9488993659610642</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N9">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O9">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P9">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q9">
-        <v>10149.55099526007</v>
+        <v>13441.6438645871</v>
       </c>
       <c r="R9">
-        <v>91345.95895734063</v>
+        <v>120974.7947812839</v>
       </c>
       <c r="S9">
-        <v>0.1324304559971386</v>
+        <v>0.1911579148300394</v>
       </c>
       <c r="T9">
-        <v>0.1378497387664686</v>
+        <v>0.1976228879153054</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1371.900604</v>
       </c>
       <c r="I10">
-        <v>0.9366022017903033</v>
+        <v>0.9384494856523883</v>
       </c>
       <c r="J10">
-        <v>0.9482715616337878</v>
+        <v>0.9488993659610642</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N10">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O10">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P10">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q10">
-        <v>5888.300970863602</v>
+        <v>4343.925022928723</v>
       </c>
       <c r="R10">
-        <v>35329.80582518161</v>
+        <v>26063.55013757234</v>
       </c>
       <c r="S10">
-        <v>0.07683003740599263</v>
+        <v>0.06177634654856203</v>
       </c>
       <c r="T10">
-        <v>0.05331603673837147</v>
+        <v>0.04257708439865258</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1371.900604</v>
       </c>
       <c r="I11">
-        <v>0.9366022017903033</v>
+        <v>0.9384494856523883</v>
       </c>
       <c r="J11">
-        <v>0.9482715616337878</v>
+        <v>0.9488993659610642</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N11">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O11">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P11">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q11">
-        <v>17154.31893018181</v>
+        <v>11605.87196022741</v>
       </c>
       <c r="R11">
-        <v>154388.8703716363</v>
+        <v>104452.8476420467</v>
       </c>
       <c r="S11">
-        <v>0.2238280569559436</v>
+        <v>0.1650508156629875</v>
       </c>
       <c r="T11">
-        <v>0.2329874872638794</v>
+        <v>0.1706328449601325</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4533563333333333</v>
+        <v>0.7929293333333334</v>
       </c>
       <c r="H12">
-        <v>1.360069</v>
+        <v>2.378788</v>
       </c>
       <c r="I12">
-        <v>0.0009285247169311226</v>
+        <v>0.00162721145290499</v>
       </c>
       <c r="J12">
-        <v>0.0009400934373811999</v>
+        <v>0.00164533087774323</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N12">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O12">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P12">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q12">
-        <v>15.05661756983267</v>
+        <v>22.88012207664045</v>
       </c>
       <c r="R12">
-        <v>135.509558128494</v>
+        <v>205.921098689764</v>
       </c>
       <c r="S12">
-        <v>0.0001964574325976256</v>
+        <v>0.0003253855310621777</v>
       </c>
       <c r="T12">
-        <v>0.0002044968097285639</v>
+        <v>0.0003363900908394819</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4533563333333333</v>
+        <v>0.7929293333333334</v>
       </c>
       <c r="H13">
-        <v>1.360069</v>
+        <v>2.378788</v>
       </c>
       <c r="I13">
-        <v>0.0009285247169311226</v>
+        <v>0.00162721145290499</v>
       </c>
       <c r="J13">
-        <v>0.0009400934373811999</v>
+        <v>0.00164533087774323</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>153.522748</v>
       </c>
       <c r="O13">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P13">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q13">
-        <v>23.20017003884578</v>
+        <v>40.57756340771378</v>
       </c>
       <c r="R13">
-        <v>208.8015303496121</v>
+        <v>365.1980706694241</v>
       </c>
       <c r="S13">
-        <v>0.0003027137948161788</v>
+        <v>0.0005770665022853245</v>
       </c>
       <c r="T13">
-        <v>0.0003151013656353962</v>
+        <v>0.0005965829288429185</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4533563333333333</v>
+        <v>0.7929293333333334</v>
       </c>
       <c r="H14">
-        <v>1.360069</v>
+        <v>2.378788</v>
       </c>
       <c r="I14">
-        <v>0.0009285247169311226</v>
+        <v>0.00162721145290499</v>
       </c>
       <c r="J14">
-        <v>0.0009400934373811999</v>
+        <v>0.00164533087774323</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N14">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O14">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P14">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q14">
-        <v>10.06201880247322</v>
+        <v>23.30695170781733</v>
       </c>
       <c r="R14">
-        <v>90.55816922225898</v>
+        <v>209.762565370356</v>
       </c>
       <c r="S14">
-        <v>0.0001312883435814657</v>
+        <v>0.0003314556117089658</v>
       </c>
       <c r="T14">
-        <v>0.0001366608891400212</v>
+        <v>0.0003426654620076788</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4533563333333333</v>
+        <v>0.7929293333333334</v>
       </c>
       <c r="H15">
-        <v>1.360069</v>
+        <v>2.378788</v>
       </c>
       <c r="I15">
-        <v>0.0009285247169311226</v>
+        <v>0.00162721145290499</v>
       </c>
       <c r="J15">
-        <v>0.0009400934373811999</v>
+        <v>0.00164533087774323</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N15">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O15">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P15">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q15">
-        <v>5.8375188332095</v>
+        <v>7.532088467134002</v>
       </c>
       <c r="R15">
-        <v>35.025112999257</v>
+        <v>45.19253080280401</v>
       </c>
       <c r="S15">
-        <v>7.616743650382633E-05</v>
+        <v>0.0001071162381772381</v>
       </c>
       <c r="T15">
-        <v>5.285622628876702E-05</v>
+        <v>7.382594420266177E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4533563333333333</v>
+        <v>0.7929293333333334</v>
       </c>
       <c r="H16">
-        <v>1.360069</v>
+        <v>2.378788</v>
       </c>
       <c r="I16">
-        <v>0.0009285247169311226</v>
+        <v>0.00162721145290499</v>
       </c>
       <c r="J16">
-        <v>0.0009400934373811999</v>
+        <v>0.00164533087774323</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N16">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O16">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P16">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q16">
-        <v>17.00637591748844</v>
+        <v>20.12384050858356</v>
       </c>
       <c r="R16">
-        <v>153.057383257396</v>
+        <v>181.114564577252</v>
       </c>
       <c r="S16">
-        <v>0.0002218977094320262</v>
+        <v>0.0002861875696712842</v>
       </c>
       <c r="T16">
-        <v>0.0002309781465884515</v>
+        <v>0.0002958664518504897</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.02527</v>
+        <v>16.0991485</v>
       </c>
       <c r="H17">
-        <v>36.05054</v>
+        <v>32.198297</v>
       </c>
       <c r="I17">
-        <v>0.03691777856349285</v>
+        <v>0.03303789848597461</v>
       </c>
       <c r="J17">
-        <v>0.02491849756743844</v>
+        <v>0.02227052274723398</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N17">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O17">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P17">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q17">
-        <v>598.64520913934</v>
+        <v>464.5438975772068</v>
       </c>
       <c r="R17">
-        <v>3591.87125483604</v>
+        <v>2787.263385463241</v>
       </c>
       <c r="S17">
-        <v>0.007811070466452076</v>
+        <v>0.006606427286905804</v>
       </c>
       <c r="T17">
-        <v>0.005420475298673802</v>
+        <v>0.004553238057660715</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.02527</v>
+        <v>16.0991485</v>
       </c>
       <c r="H18">
-        <v>36.05054</v>
+        <v>32.198297</v>
       </c>
       <c r="I18">
-        <v>0.03691777856349285</v>
+        <v>0.03303789848597461</v>
       </c>
       <c r="J18">
-        <v>0.02491849756743844</v>
+        <v>0.02227052274723398</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>153.522748</v>
       </c>
       <c r="O18">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P18">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q18">
-        <v>922.4296612806535</v>
+        <v>823.8618393933593</v>
       </c>
       <c r="R18">
-        <v>5534.577967683921</v>
+        <v>4943.171036360156</v>
       </c>
       <c r="S18">
-        <v>0.01203578175288068</v>
+        <v>0.0117164026151137</v>
       </c>
       <c r="T18">
-        <v>0.008352204473371186</v>
+        <v>0.008075101407949828</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.02527</v>
+        <v>16.0991485</v>
       </c>
       <c r="H19">
-        <v>36.05054</v>
+        <v>32.198297</v>
       </c>
       <c r="I19">
-        <v>0.03691777856349285</v>
+        <v>0.03303789848597461</v>
       </c>
       <c r="J19">
-        <v>0.02491849756743844</v>
+        <v>0.02227052274723398</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N19">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O19">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P19">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q19">
-        <v>400.0619211076566</v>
+        <v>473.2099833526314</v>
       </c>
       <c r="R19">
-        <v>2400.371526645939</v>
+        <v>2839.259900115789</v>
       </c>
       <c r="S19">
-        <v>0.005219973047489545</v>
+        <v>0.006729670463354842</v>
       </c>
       <c r="T19">
-        <v>0.00362238890113509</v>
+        <v>0.004638178903443878</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.02527</v>
+        <v>16.0991485</v>
       </c>
       <c r="H20">
-        <v>36.05054</v>
+        <v>32.198297</v>
       </c>
       <c r="I20">
-        <v>0.03691777856349285</v>
+        <v>0.03303789848597461</v>
       </c>
       <c r="J20">
-        <v>0.02491849756743844</v>
+        <v>0.02227052274723398</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N20">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O20">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P20">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q20">
-        <v>232.097459243655</v>
+        <v>152.9268821948752</v>
       </c>
       <c r="R20">
-        <v>928.38983697462</v>
+        <v>611.707528779501</v>
       </c>
       <c r="S20">
-        <v>0.003028387401350944</v>
+        <v>0.002174822083989903</v>
       </c>
       <c r="T20">
-        <v>0.001401028550810471</v>
+        <v>0.0009992776480050897</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.02527</v>
+        <v>16.0991485</v>
       </c>
       <c r="H21">
-        <v>36.05054</v>
+        <v>32.198297</v>
       </c>
       <c r="I21">
-        <v>0.03691777856349285</v>
+        <v>0.03303789848597461</v>
       </c>
       <c r="J21">
-        <v>0.02491849756743844</v>
+        <v>0.02227052274723398</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N21">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O21">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P21">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q21">
-        <v>676.1668363168933</v>
+        <v>408.5820553214521</v>
       </c>
       <c r="R21">
-        <v>4057.00101790136</v>
+        <v>2451.492331928713</v>
       </c>
       <c r="S21">
-        <v>0.008822565895319616</v>
+        <v>0.005810576036610366</v>
       </c>
       <c r="T21">
-        <v>0.006122400343447895</v>
+        <v>0.00400472673017447</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.106441</v>
+        <v>0.3568596666666666</v>
       </c>
       <c r="H22">
-        <v>0.319323</v>
+        <v>1.070579</v>
       </c>
       <c r="I22">
-        <v>0.0002180031293887273</v>
+        <v>0.0007323302497068134</v>
       </c>
       <c r="J22">
-        <v>0.0002207192846134107</v>
+        <v>0.0007404849384491051</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>33.211442</v>
+        <v>28.85518433333334</v>
       </c>
       <c r="N22">
-        <v>99.634326</v>
+        <v>86.56555300000001</v>
       </c>
       <c r="O22">
-        <v>0.211580186305583</v>
+        <v>0.1999651185353207</v>
       </c>
       <c r="P22">
-        <v>0.2175281749633597</v>
+        <v>0.2044513327926365</v>
       </c>
       <c r="Q22">
-        <v>3.535059097922</v>
+        <v>10.29725146279856</v>
       </c>
       <c r="R22">
-        <v>31.815531881298</v>
+        <v>92.675263165187</v>
       </c>
       <c r="S22">
-        <v>4.612514273126702E-05</v>
+        <v>0.0001464405051896239</v>
       </c>
       <c r="T22">
-        <v>4.801266316117359E-05</v>
+        <v>0.0001513931325787929</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.106441</v>
+        <v>0.3568596666666666</v>
       </c>
       <c r="H23">
-        <v>0.319323</v>
+        <v>1.070579</v>
       </c>
       <c r="I23">
-        <v>0.0002180031293887273</v>
+        <v>0.0007323302497068134</v>
       </c>
       <c r="J23">
-        <v>0.0002207192846134107</v>
+        <v>0.0007404849384491051</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>153.522748</v>
       </c>
       <c r="O23">
-        <v>0.326015871517865</v>
+        <v>0.3546352265743414</v>
       </c>
       <c r="P23">
-        <v>0.3351809012869699</v>
+        <v>0.3625914622481308</v>
       </c>
       <c r="Q23">
-        <v>5.447038273289334</v>
+        <v>18.26202555901022</v>
       </c>
       <c r="R23">
-        <v>49.02334445960401</v>
+        <v>164.358230031092</v>
       </c>
       <c r="S23">
-        <v>7.10724802212878E-05</v>
+        <v>0.0002597101040320198</v>
       </c>
       <c r="T23">
-        <v>7.398088874813824E-05</v>
+        <v>0.0002684935166049782</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.106441</v>
+        <v>0.3568596666666666</v>
       </c>
       <c r="H24">
-        <v>0.319323</v>
+        <v>1.070579</v>
       </c>
       <c r="I24">
-        <v>0.0002180031293887273</v>
+        <v>0.0007323302497068134</v>
       </c>
       <c r="J24">
-        <v>0.0002207192846134107</v>
+        <v>0.0007404849384491051</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>22.19450366666666</v>
+        <v>29.393479</v>
       </c>
       <c r="N24">
-        <v>66.58351099999999</v>
+        <v>88.180437</v>
       </c>
       <c r="O24">
-        <v>0.1413945597650736</v>
+        <v>0.2036954761578358</v>
       </c>
       <c r="P24">
-        <v>0.1453694746776606</v>
+        <v>0.2082653809291453</v>
       </c>
       <c r="Q24">
-        <v>2.362405164783667</v>
+        <v>10.48934711811367</v>
       </c>
       <c r="R24">
-        <v>21.261646483053</v>
+        <v>94.40412406302299</v>
       </c>
       <c r="S24">
-        <v>3.082445650732748E-05</v>
+        <v>0.0001491723589188162</v>
       </c>
       <c r="T24">
-        <v>3.208584645548057E-05</v>
+        <v>0.0001542173777783976</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.106441</v>
+        <v>0.3568596666666666</v>
       </c>
       <c r="H25">
-        <v>0.319323</v>
+        <v>1.070579</v>
       </c>
       <c r="I25">
-        <v>0.0002180031293887273</v>
+        <v>0.0007323302497068134</v>
       </c>
       <c r="J25">
-        <v>0.0002207192846134107</v>
+        <v>0.0007404849384491051</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.8762265</v>
+        <v>9.499066500000001</v>
       </c>
       <c r="N25">
-        <v>25.752453</v>
+        <v>18.998133</v>
       </c>
       <c r="O25">
-        <v>0.08203059661736112</v>
+        <v>0.0658280999596015</v>
       </c>
       <c r="P25">
-        <v>0.05622443917490541</v>
+        <v>0.04486996822421697</v>
       </c>
       <c r="Q25">
-        <v>1.3705584248865</v>
+        <v>3.3898337048345</v>
       </c>
       <c r="R25">
-        <v>8.223350549319001</v>
+        <v>20.339002229007</v>
       </c>
       <c r="S25">
-        <v>1.788292676820907E-05</v>
+        <v>4.820790888114003E-05</v>
       </c>
       <c r="T25">
-        <v>1.240981799247535E-05</v>
+        <v>3.322553565872261E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.106441</v>
+        <v>0.3568596666666666</v>
       </c>
       <c r="H26">
-        <v>0.319323</v>
+        <v>1.070579</v>
       </c>
       <c r="I26">
-        <v>0.0002180031293887273</v>
+        <v>0.0007323302497068134</v>
       </c>
       <c r="J26">
-        <v>0.0002207192846134107</v>
+        <v>0.0007404849384491051</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>37.51216133333333</v>
+        <v>25.37910966666666</v>
       </c>
       <c r="N26">
-        <v>112.536484</v>
+        <v>76.13732899999999</v>
       </c>
       <c r="O26">
-        <v>0.2389787857941174</v>
+        <v>0.1758760787729007</v>
       </c>
       <c r="P26">
-        <v>0.2456970098971044</v>
+        <v>0.1798218558058706</v>
       </c>
       <c r="Q26">
-        <v>3.992831964481333</v>
+        <v>9.056780615943444</v>
       </c>
       <c r="R26">
-        <v>35.935487680332</v>
+        <v>81.51102554349099</v>
       </c>
       <c r="S26">
-        <v>5.20981231606359E-05</v>
+        <v>0.0001287993726852135</v>
       </c>
       <c r="T26">
-        <v>5.423006825614297E-05</v>
+        <v>0.000133155375828214</v>
       </c>
     </row>
   </sheetData>
